--- a/table_s3_consistency_test_results.xlsx
+++ b/table_s3_consistency_test_results.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Trycycler/PAPER/GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270F5A3C-395B-B044-97D8-EA7B2564DFF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1EA9AC-462F-5343-84FC-9C3C867CD7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19020" xr2:uid="{47520A07-41C4-A945-98BF-A12838741A71}"/>
+    <workbookView xWindow="4400" yWindow="-22780" windowWidth="33600" windowHeight="18800" xr2:uid="{47520A07-41C4-A945-98BF-A12838741A71}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet descriptions" sheetId="2" r:id="rId1"/>
     <sheet name="Matrix" sheetId="1" r:id="rId2"/>
     <sheet name="Trycycler vs Trycycler" sheetId="3" r:id="rId3"/>
-    <sheet name="Other vs other" sheetId="5" r:id="rId4"/>
-    <sheet name="Tester assemblers" sheetId="6" r:id="rId5"/>
+    <sheet name="Trycycler vs polished" sheetId="7" r:id="rId4"/>
+    <sheet name="Other vs other" sheetId="5" r:id="rId5"/>
+    <sheet name="Tester assemblers" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029" refMode="R1C1"/>
   <extLst>
@@ -431,7 +432,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="794" uniqueCount="94">
   <si>
     <t>Flye</t>
   </si>
@@ -901,6 +902,44 @@
   <si>
     <t xml:space="preserve">Trycycler - tester 5 </t>
   </si>
+  <si>
+    <t>polished</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Trycycler vs polished</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worksheet shows the types of differences between Trycycler-assembled chromosomes and the short-read-polished chromosomes in the consistency test genomes.</t>
+    </r>
+  </si>
+  <si>
+    <t>methylation motif errors</t>
+  </si>
+  <si>
+    <t>non-methylation motif errors</t>
+  </si>
+  <si>
+    <t>5 bp homopolymer indels</t>
+  </si>
 </sst>
 </file>
 
@@ -1177,7 +1216,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1356,6 +1395,27 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1819,7 +1879,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4884A9A2-6291-734B-A356-71679BA59ECA}">
-  <dimension ref="A1:A21"/>
+  <dimension ref="A1:A23"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1840,18 +1900,23 @@
     </row>
     <row r="5" spans="1:1" ht="66" x14ac:dyDescent="0.25">
       <c r="A5" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="66" x14ac:dyDescent="0.25">
+      <c r="A7" s="39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="39"/>
-    </row>
-    <row r="7" spans="1:1" ht="44" x14ac:dyDescent="0.25">
-      <c r="A7" s="39" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="39"/>
+    </row>
+    <row r="9" spans="1:1" ht="44" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="21" ht="44" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="44" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2927,8 +2992,8 @@
   <dimension ref="A1:L95"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6515,6 +6580,3077 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BA5BE37-54B1-6A47-9B08-E548C7C7E9B4}">
+  <dimension ref="A1:Y41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="X1" sqref="X1:Y1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="38.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="22" width="7.5" style="43" customWidth="1"/>
+    <col min="23" max="23" width="3.33203125" style="43" customWidth="1"/>
+    <col min="24" max="25" width="7.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" ht="164" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="52" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="53" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="53" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" s="53" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" s="53" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="53" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" s="42" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" s="68" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="O1" s="68" t="s">
+        <v>31</v>
+      </c>
+      <c r="P1" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q1" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="R1" s="68" t="s">
+        <v>34</v>
+      </c>
+      <c r="S1" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="T1" s="68" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="68" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" s="68" t="s">
+        <v>55</v>
+      </c>
+      <c r="W1" s="53"/>
+      <c r="X1" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y1" s="68" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A2" s="44" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" s="44">
+        <v>3798645</v>
+      </c>
+      <c r="C2" s="44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="E2" s="44">
+        <v>2</v>
+      </c>
+      <c r="F2" s="44">
+        <v>764</v>
+      </c>
+      <c r="G2" s="44">
+        <v>6</v>
+      </c>
+      <c r="H2" s="44">
+        <v>27</v>
+      </c>
+      <c r="I2" s="44">
+        <v>0</v>
+      </c>
+      <c r="J2" s="44">
+        <v>2</v>
+      </c>
+      <c r="K2" s="44">
+        <v>0</v>
+      </c>
+      <c r="L2" s="44">
+        <v>0</v>
+      </c>
+      <c r="M2" s="44">
+        <v>0</v>
+      </c>
+      <c r="N2" s="44">
+        <v>0</v>
+      </c>
+      <c r="O2" s="44">
+        <v>0</v>
+      </c>
+      <c r="P2" s="44">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="44">
+        <v>0</v>
+      </c>
+      <c r="R2" s="44">
+        <v>0</v>
+      </c>
+      <c r="S2" s="44">
+        <v>0</v>
+      </c>
+      <c r="T2" s="44">
+        <v>0</v>
+      </c>
+      <c r="U2" s="44">
+        <v>0</v>
+      </c>
+      <c r="V2" s="44">
+        <v>0</v>
+      </c>
+      <c r="W2" s="69"/>
+      <c r="X2" s="44">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="44">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A3" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="45">
+        <v>3798645</v>
+      </c>
+      <c r="C3" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E3" s="45">
+        <v>3</v>
+      </c>
+      <c r="F3" s="45">
+        <v>734</v>
+      </c>
+      <c r="G3" s="45">
+        <v>4</v>
+      </c>
+      <c r="H3" s="45">
+        <v>23</v>
+      </c>
+      <c r="I3" s="45">
+        <v>0</v>
+      </c>
+      <c r="J3" s="45">
+        <v>2</v>
+      </c>
+      <c r="K3" s="45">
+        <v>0</v>
+      </c>
+      <c r="L3" s="45">
+        <v>0</v>
+      </c>
+      <c r="M3" s="45">
+        <v>0</v>
+      </c>
+      <c r="N3" s="45">
+        <v>0</v>
+      </c>
+      <c r="O3" s="45">
+        <v>0</v>
+      </c>
+      <c r="P3" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="45">
+        <v>0</v>
+      </c>
+      <c r="R3" s="45">
+        <v>0</v>
+      </c>
+      <c r="S3" s="45">
+        <v>0</v>
+      </c>
+      <c r="T3" s="45">
+        <v>0</v>
+      </c>
+      <c r="U3" s="45">
+        <v>0</v>
+      </c>
+      <c r="V3" s="45">
+        <v>0</v>
+      </c>
+      <c r="W3" s="69"/>
+      <c r="X3" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A4" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="45">
+        <v>3798645</v>
+      </c>
+      <c r="C4" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D4" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="45">
+        <v>5</v>
+      </c>
+      <c r="F4" s="45">
+        <v>728</v>
+      </c>
+      <c r="G4" s="45">
+        <v>6</v>
+      </c>
+      <c r="H4" s="45">
+        <v>26</v>
+      </c>
+      <c r="I4" s="45">
+        <v>0</v>
+      </c>
+      <c r="J4" s="45">
+        <v>1</v>
+      </c>
+      <c r="K4" s="45">
+        <v>0</v>
+      </c>
+      <c r="L4" s="45">
+        <v>0</v>
+      </c>
+      <c r="M4" s="45">
+        <v>0</v>
+      </c>
+      <c r="N4" s="45">
+        <v>0</v>
+      </c>
+      <c r="O4" s="45">
+        <v>0</v>
+      </c>
+      <c r="P4" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="45">
+        <v>0</v>
+      </c>
+      <c r="R4" s="45">
+        <v>0</v>
+      </c>
+      <c r="S4" s="45">
+        <v>0</v>
+      </c>
+      <c r="T4" s="45">
+        <v>0</v>
+      </c>
+      <c r="U4" s="45">
+        <v>0</v>
+      </c>
+      <c r="V4" s="45">
+        <v>0</v>
+      </c>
+      <c r="W4" s="69"/>
+      <c r="X4" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="45">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A5" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="45">
+        <v>3798645</v>
+      </c>
+      <c r="C5" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D5" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E5" s="45">
+        <v>1</v>
+      </c>
+      <c r="F5" s="45">
+        <v>713</v>
+      </c>
+      <c r="G5" s="45">
+        <v>4</v>
+      </c>
+      <c r="H5" s="45">
+        <v>22</v>
+      </c>
+      <c r="I5" s="45">
+        <v>0</v>
+      </c>
+      <c r="J5" s="45">
+        <v>2</v>
+      </c>
+      <c r="K5" s="45">
+        <v>0</v>
+      </c>
+      <c r="L5" s="45">
+        <v>0</v>
+      </c>
+      <c r="M5" s="45">
+        <v>0</v>
+      </c>
+      <c r="N5" s="45">
+        <v>0</v>
+      </c>
+      <c r="O5" s="45">
+        <v>0</v>
+      </c>
+      <c r="P5" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="45">
+        <v>0</v>
+      </c>
+      <c r="R5" s="45">
+        <v>0</v>
+      </c>
+      <c r="S5" s="45">
+        <v>0</v>
+      </c>
+      <c r="T5" s="45">
+        <v>0</v>
+      </c>
+      <c r="U5" s="45">
+        <v>0</v>
+      </c>
+      <c r="V5" s="45">
+        <v>0</v>
+      </c>
+      <c r="W5" s="69"/>
+      <c r="X5" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="45">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A6" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="45">
+        <v>3798645</v>
+      </c>
+      <c r="C6" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E6" s="45">
+        <v>0</v>
+      </c>
+      <c r="F6" s="45">
+        <v>727</v>
+      </c>
+      <c r="G6" s="45">
+        <v>8</v>
+      </c>
+      <c r="H6" s="45">
+        <v>23</v>
+      </c>
+      <c r="I6" s="45">
+        <v>0</v>
+      </c>
+      <c r="J6" s="45">
+        <v>1</v>
+      </c>
+      <c r="K6" s="45">
+        <v>0</v>
+      </c>
+      <c r="L6" s="45">
+        <v>0</v>
+      </c>
+      <c r="M6" s="45">
+        <v>0</v>
+      </c>
+      <c r="N6" s="45">
+        <v>0</v>
+      </c>
+      <c r="O6" s="45">
+        <v>0</v>
+      </c>
+      <c r="P6" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="45">
+        <v>0</v>
+      </c>
+      <c r="R6" s="45">
+        <v>0</v>
+      </c>
+      <c r="S6" s="45">
+        <v>0</v>
+      </c>
+      <c r="T6" s="45">
+        <v>0</v>
+      </c>
+      <c r="U6" s="45">
+        <v>0</v>
+      </c>
+      <c r="V6" s="45">
+        <v>0</v>
+      </c>
+      <c r="W6" s="69"/>
+      <c r="X6" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="45">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A7" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="45">
+        <v>3798645</v>
+      </c>
+      <c r="C7" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" s="45">
+        <v>3</v>
+      </c>
+      <c r="F7" s="45">
+        <v>845</v>
+      </c>
+      <c r="G7" s="45">
+        <v>14</v>
+      </c>
+      <c r="H7" s="45">
+        <v>33</v>
+      </c>
+      <c r="I7" s="45">
+        <v>1</v>
+      </c>
+      <c r="J7" s="45">
+        <v>0</v>
+      </c>
+      <c r="K7" s="45">
+        <v>0</v>
+      </c>
+      <c r="L7" s="45">
+        <v>0</v>
+      </c>
+      <c r="M7" s="45">
+        <v>0</v>
+      </c>
+      <c r="N7" s="45">
+        <v>0</v>
+      </c>
+      <c r="O7" s="45">
+        <v>0</v>
+      </c>
+      <c r="P7" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="45">
+        <v>0</v>
+      </c>
+      <c r="R7" s="45">
+        <v>0</v>
+      </c>
+      <c r="S7" s="45">
+        <v>0</v>
+      </c>
+      <c r="T7" s="45">
+        <v>0</v>
+      </c>
+      <c r="U7" s="45">
+        <v>0</v>
+      </c>
+      <c r="V7" s="45">
+        <v>0</v>
+      </c>
+      <c r="W7" s="69"/>
+      <c r="X7" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A8" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="45">
+        <v>4758907</v>
+      </c>
+      <c r="C8" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="45">
+        <v>10</v>
+      </c>
+      <c r="F8" s="45">
+        <v>1201</v>
+      </c>
+      <c r="G8" s="45">
+        <v>81</v>
+      </c>
+      <c r="H8" s="45">
+        <v>68</v>
+      </c>
+      <c r="I8" s="45">
+        <v>1</v>
+      </c>
+      <c r="J8" s="45">
+        <v>11</v>
+      </c>
+      <c r="K8" s="45">
+        <v>0</v>
+      </c>
+      <c r="L8" s="45">
+        <v>0</v>
+      </c>
+      <c r="M8" s="45">
+        <v>0</v>
+      </c>
+      <c r="N8" s="45">
+        <v>0</v>
+      </c>
+      <c r="O8" s="45">
+        <v>0</v>
+      </c>
+      <c r="P8" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="45">
+        <v>0</v>
+      </c>
+      <c r="R8" s="45">
+        <v>0</v>
+      </c>
+      <c r="S8" s="45">
+        <v>0</v>
+      </c>
+      <c r="T8" s="45">
+        <v>0</v>
+      </c>
+      <c r="U8" s="45">
+        <v>0</v>
+      </c>
+      <c r="V8" s="45">
+        <v>0</v>
+      </c>
+      <c r="W8" s="69"/>
+      <c r="X8" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A9" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="45">
+        <v>4758907</v>
+      </c>
+      <c r="C9" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E9" s="45">
+        <v>12</v>
+      </c>
+      <c r="F9" s="45">
+        <v>1206</v>
+      </c>
+      <c r="G9" s="45">
+        <v>99</v>
+      </c>
+      <c r="H9" s="45">
+        <v>61</v>
+      </c>
+      <c r="I9" s="45">
+        <v>1</v>
+      </c>
+      <c r="J9" s="45">
+        <v>8</v>
+      </c>
+      <c r="K9" s="45">
+        <v>0</v>
+      </c>
+      <c r="L9" s="45">
+        <v>0</v>
+      </c>
+      <c r="M9" s="45">
+        <v>0</v>
+      </c>
+      <c r="N9" s="45">
+        <v>0</v>
+      </c>
+      <c r="O9" s="45">
+        <v>0</v>
+      </c>
+      <c r="P9" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="45">
+        <v>0</v>
+      </c>
+      <c r="R9" s="45">
+        <v>0</v>
+      </c>
+      <c r="S9" s="45">
+        <v>0</v>
+      </c>
+      <c r="T9" s="45">
+        <v>0</v>
+      </c>
+      <c r="U9" s="45">
+        <v>0</v>
+      </c>
+      <c r="V9" s="45">
+        <v>0</v>
+      </c>
+      <c r="W9" s="69"/>
+      <c r="X9" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A10" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="45">
+        <v>4758907</v>
+      </c>
+      <c r="C10" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E10" s="45">
+        <v>9</v>
+      </c>
+      <c r="F10" s="45">
+        <v>1094</v>
+      </c>
+      <c r="G10" s="45">
+        <v>86</v>
+      </c>
+      <c r="H10" s="45">
+        <v>59</v>
+      </c>
+      <c r="I10" s="45">
+        <v>1</v>
+      </c>
+      <c r="J10" s="45">
+        <v>9</v>
+      </c>
+      <c r="K10" s="45">
+        <v>0</v>
+      </c>
+      <c r="L10" s="45">
+        <v>0</v>
+      </c>
+      <c r="M10" s="45">
+        <v>0</v>
+      </c>
+      <c r="N10" s="45">
+        <v>0</v>
+      </c>
+      <c r="O10" s="45">
+        <v>0</v>
+      </c>
+      <c r="P10" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="45">
+        <v>0</v>
+      </c>
+      <c r="R10" s="45">
+        <v>0</v>
+      </c>
+      <c r="S10" s="45">
+        <v>0</v>
+      </c>
+      <c r="T10" s="45">
+        <v>0</v>
+      </c>
+      <c r="U10" s="45">
+        <v>0</v>
+      </c>
+      <c r="V10" s="45">
+        <v>0</v>
+      </c>
+      <c r="W10" s="69"/>
+      <c r="X10" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="45">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A11" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="45">
+        <v>4758907</v>
+      </c>
+      <c r="C11" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E11" s="45">
+        <v>14</v>
+      </c>
+      <c r="F11" s="45">
+        <v>1096</v>
+      </c>
+      <c r="G11" s="45">
+        <v>80</v>
+      </c>
+      <c r="H11" s="45">
+        <v>63</v>
+      </c>
+      <c r="I11" s="45">
+        <v>1</v>
+      </c>
+      <c r="J11" s="45">
+        <v>7</v>
+      </c>
+      <c r="K11" s="45">
+        <v>0</v>
+      </c>
+      <c r="L11" s="45">
+        <v>0</v>
+      </c>
+      <c r="M11" s="45">
+        <v>0</v>
+      </c>
+      <c r="N11" s="45">
+        <v>0</v>
+      </c>
+      <c r="O11" s="45">
+        <v>0</v>
+      </c>
+      <c r="P11" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="45">
+        <v>0</v>
+      </c>
+      <c r="R11" s="45">
+        <v>0</v>
+      </c>
+      <c r="S11" s="45">
+        <v>0</v>
+      </c>
+      <c r="T11" s="45">
+        <v>0</v>
+      </c>
+      <c r="U11" s="45">
+        <v>0</v>
+      </c>
+      <c r="V11" s="45">
+        <v>0</v>
+      </c>
+      <c r="W11" s="69"/>
+      <c r="X11" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="45">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A12" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="45">
+        <v>4758907</v>
+      </c>
+      <c r="C12" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="45">
+        <v>13</v>
+      </c>
+      <c r="F12" s="45">
+        <v>1170</v>
+      </c>
+      <c r="G12" s="45">
+        <v>73</v>
+      </c>
+      <c r="H12" s="45">
+        <v>62</v>
+      </c>
+      <c r="I12" s="45">
+        <v>1</v>
+      </c>
+      <c r="J12" s="45">
+        <v>7</v>
+      </c>
+      <c r="K12" s="45">
+        <v>0</v>
+      </c>
+      <c r="L12" s="45">
+        <v>0</v>
+      </c>
+      <c r="M12" s="45">
+        <v>0</v>
+      </c>
+      <c r="N12" s="45">
+        <v>0</v>
+      </c>
+      <c r="O12" s="45">
+        <v>0</v>
+      </c>
+      <c r="P12" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="45">
+        <v>0</v>
+      </c>
+      <c r="R12" s="45">
+        <v>0</v>
+      </c>
+      <c r="S12" s="45">
+        <v>0</v>
+      </c>
+      <c r="T12" s="45">
+        <v>0</v>
+      </c>
+      <c r="U12" s="45">
+        <v>0</v>
+      </c>
+      <c r="V12" s="45">
+        <v>0</v>
+      </c>
+      <c r="W12" s="69"/>
+      <c r="X12" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A13" s="45" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="45">
+        <v>4758907</v>
+      </c>
+      <c r="C13" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E13" s="45">
+        <v>15</v>
+      </c>
+      <c r="F13" s="45">
+        <v>1068</v>
+      </c>
+      <c r="G13" s="45">
+        <v>76</v>
+      </c>
+      <c r="H13" s="45">
+        <v>61</v>
+      </c>
+      <c r="I13" s="45">
+        <v>1</v>
+      </c>
+      <c r="J13" s="45">
+        <v>4</v>
+      </c>
+      <c r="K13" s="45">
+        <v>0</v>
+      </c>
+      <c r="L13" s="45">
+        <v>0</v>
+      </c>
+      <c r="M13" s="45">
+        <v>0</v>
+      </c>
+      <c r="N13" s="45">
+        <v>0</v>
+      </c>
+      <c r="O13" s="45">
+        <v>0</v>
+      </c>
+      <c r="P13" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="45">
+        <v>0</v>
+      </c>
+      <c r="R13" s="45">
+        <v>0</v>
+      </c>
+      <c r="S13" s="45">
+        <v>0</v>
+      </c>
+      <c r="T13" s="45">
+        <v>0</v>
+      </c>
+      <c r="U13" s="45">
+        <v>0</v>
+      </c>
+      <c r="V13" s="45">
+        <v>0</v>
+      </c>
+      <c r="W13" s="69"/>
+      <c r="X13" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="45">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A14" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="45">
+        <v>4837926</v>
+      </c>
+      <c r="C14" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D14" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="45">
+        <v>299</v>
+      </c>
+      <c r="F14" s="45">
+        <v>1284</v>
+      </c>
+      <c r="G14" s="45">
+        <v>540</v>
+      </c>
+      <c r="H14" s="45">
+        <v>83</v>
+      </c>
+      <c r="I14" s="45">
+        <v>2</v>
+      </c>
+      <c r="J14" s="45">
+        <v>4</v>
+      </c>
+      <c r="K14" s="45">
+        <v>0</v>
+      </c>
+      <c r="L14" s="45">
+        <v>1</v>
+      </c>
+      <c r="M14" s="45">
+        <v>0</v>
+      </c>
+      <c r="N14" s="45">
+        <v>0</v>
+      </c>
+      <c r="O14" s="45">
+        <v>0</v>
+      </c>
+      <c r="P14" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="45">
+        <v>0</v>
+      </c>
+      <c r="R14" s="45">
+        <v>0</v>
+      </c>
+      <c r="S14" s="45">
+        <v>0</v>
+      </c>
+      <c r="T14" s="45">
+        <v>0</v>
+      </c>
+      <c r="U14" s="45">
+        <v>0</v>
+      </c>
+      <c r="V14" s="45">
+        <v>0</v>
+      </c>
+      <c r="W14" s="69"/>
+      <c r="X14" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="45">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A15" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="45">
+        <v>4837926</v>
+      </c>
+      <c r="C15" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D15" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="45">
+        <v>223</v>
+      </c>
+      <c r="F15" s="45">
+        <v>1326</v>
+      </c>
+      <c r="G15" s="45">
+        <v>582</v>
+      </c>
+      <c r="H15" s="45">
+        <v>88</v>
+      </c>
+      <c r="I15" s="45">
+        <v>4</v>
+      </c>
+      <c r="J15" s="45">
+        <v>5</v>
+      </c>
+      <c r="K15" s="45">
+        <v>0</v>
+      </c>
+      <c r="L15" s="45">
+        <v>0</v>
+      </c>
+      <c r="M15" s="45">
+        <v>0</v>
+      </c>
+      <c r="N15" s="45">
+        <v>1</v>
+      </c>
+      <c r="O15" s="45">
+        <v>0</v>
+      </c>
+      <c r="P15" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="45">
+        <v>0</v>
+      </c>
+      <c r="R15" s="45">
+        <v>0</v>
+      </c>
+      <c r="S15" s="45">
+        <v>0</v>
+      </c>
+      <c r="T15" s="45">
+        <v>0</v>
+      </c>
+      <c r="U15" s="45">
+        <v>0</v>
+      </c>
+      <c r="V15" s="45">
+        <v>0</v>
+      </c>
+      <c r="W15" s="69"/>
+      <c r="X15" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="45">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A16" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="45">
+        <v>4837926</v>
+      </c>
+      <c r="C16" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D16" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E16" s="45">
+        <v>318</v>
+      </c>
+      <c r="F16" s="45">
+        <v>1303</v>
+      </c>
+      <c r="G16" s="45">
+        <v>537</v>
+      </c>
+      <c r="H16" s="45">
+        <v>82</v>
+      </c>
+      <c r="I16" s="45">
+        <v>0</v>
+      </c>
+      <c r="J16" s="45">
+        <v>3</v>
+      </c>
+      <c r="K16" s="45">
+        <v>0</v>
+      </c>
+      <c r="L16" s="45">
+        <v>1</v>
+      </c>
+      <c r="M16" s="45">
+        <v>0</v>
+      </c>
+      <c r="N16" s="45">
+        <v>0</v>
+      </c>
+      <c r="O16" s="45">
+        <v>0</v>
+      </c>
+      <c r="P16" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="45">
+        <v>0</v>
+      </c>
+      <c r="R16" s="45">
+        <v>0</v>
+      </c>
+      <c r="S16" s="45">
+        <v>0</v>
+      </c>
+      <c r="T16" s="45">
+        <v>0</v>
+      </c>
+      <c r="U16" s="45">
+        <v>0</v>
+      </c>
+      <c r="V16" s="45">
+        <v>0</v>
+      </c>
+      <c r="W16" s="69"/>
+      <c r="X16" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="45">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A17" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17" s="45">
+        <v>4837926</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D17" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="45">
+        <v>293</v>
+      </c>
+      <c r="F17" s="45">
+        <v>1251</v>
+      </c>
+      <c r="G17" s="45">
+        <v>543</v>
+      </c>
+      <c r="H17" s="45">
+        <v>91</v>
+      </c>
+      <c r="I17" s="45">
+        <v>5</v>
+      </c>
+      <c r="J17" s="45">
+        <v>5</v>
+      </c>
+      <c r="K17" s="45">
+        <v>0</v>
+      </c>
+      <c r="L17" s="45">
+        <v>1</v>
+      </c>
+      <c r="M17" s="45">
+        <v>0</v>
+      </c>
+      <c r="N17" s="45">
+        <v>0</v>
+      </c>
+      <c r="O17" s="45">
+        <v>0</v>
+      </c>
+      <c r="P17" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="45">
+        <v>0</v>
+      </c>
+      <c r="R17" s="45">
+        <v>0</v>
+      </c>
+      <c r="S17" s="45">
+        <v>0</v>
+      </c>
+      <c r="T17" s="45">
+        <v>0</v>
+      </c>
+      <c r="U17" s="45">
+        <v>0</v>
+      </c>
+      <c r="V17" s="45">
+        <v>0</v>
+      </c>
+      <c r="W17" s="69"/>
+      <c r="X17" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="45">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A18" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="45">
+        <v>4837926</v>
+      </c>
+      <c r="C18" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="45">
+        <v>283</v>
+      </c>
+      <c r="F18" s="45">
+        <v>1368</v>
+      </c>
+      <c r="G18" s="45">
+        <v>573</v>
+      </c>
+      <c r="H18" s="45">
+        <v>90</v>
+      </c>
+      <c r="I18" s="45">
+        <v>0</v>
+      </c>
+      <c r="J18" s="45">
+        <v>4</v>
+      </c>
+      <c r="K18" s="45">
+        <v>0</v>
+      </c>
+      <c r="L18" s="45">
+        <v>1</v>
+      </c>
+      <c r="M18" s="45">
+        <v>0</v>
+      </c>
+      <c r="N18" s="45">
+        <v>0</v>
+      </c>
+      <c r="O18" s="45">
+        <v>0</v>
+      </c>
+      <c r="P18" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="45">
+        <v>0</v>
+      </c>
+      <c r="R18" s="45">
+        <v>0</v>
+      </c>
+      <c r="S18" s="45">
+        <v>0</v>
+      </c>
+      <c r="T18" s="45">
+        <v>0</v>
+      </c>
+      <c r="U18" s="45">
+        <v>0</v>
+      </c>
+      <c r="V18" s="45">
+        <v>0</v>
+      </c>
+      <c r="W18" s="69"/>
+      <c r="X18" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="45">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A19" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="45">
+        <v>4837926</v>
+      </c>
+      <c r="C19" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="45">
+        <v>284</v>
+      </c>
+      <c r="F19" s="45">
+        <v>1352</v>
+      </c>
+      <c r="G19" s="45">
+        <v>599</v>
+      </c>
+      <c r="H19" s="45">
+        <v>78</v>
+      </c>
+      <c r="I19" s="45">
+        <v>1</v>
+      </c>
+      <c r="J19" s="45">
+        <v>7</v>
+      </c>
+      <c r="K19" s="45">
+        <v>0</v>
+      </c>
+      <c r="L19" s="45">
+        <v>0</v>
+      </c>
+      <c r="M19" s="45">
+        <v>0</v>
+      </c>
+      <c r="N19" s="45">
+        <v>1</v>
+      </c>
+      <c r="O19" s="45">
+        <v>0</v>
+      </c>
+      <c r="P19" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="45">
+        <v>0</v>
+      </c>
+      <c r="R19" s="45">
+        <v>0</v>
+      </c>
+      <c r="S19" s="45">
+        <v>0</v>
+      </c>
+      <c r="T19" s="45">
+        <v>0</v>
+      </c>
+      <c r="U19" s="45">
+        <v>0</v>
+      </c>
+      <c r="V19" s="45">
+        <v>0</v>
+      </c>
+      <c r="W19" s="69"/>
+      <c r="X19" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="45">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A20" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="45">
+        <v>2051886</v>
+      </c>
+      <c r="C20" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="45">
+        <v>3</v>
+      </c>
+      <c r="F20" s="45">
+        <v>432</v>
+      </c>
+      <c r="G20" s="45">
+        <v>43</v>
+      </c>
+      <c r="H20" s="45">
+        <v>15</v>
+      </c>
+      <c r="I20" s="45">
+        <v>15</v>
+      </c>
+      <c r="J20" s="45">
+        <v>2</v>
+      </c>
+      <c r="K20" s="45">
+        <v>0</v>
+      </c>
+      <c r="L20" s="45">
+        <v>0</v>
+      </c>
+      <c r="M20" s="45">
+        <v>1</v>
+      </c>
+      <c r="N20" s="45">
+        <v>0</v>
+      </c>
+      <c r="O20" s="45">
+        <v>0</v>
+      </c>
+      <c r="P20" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="45">
+        <v>0</v>
+      </c>
+      <c r="R20" s="45">
+        <v>0</v>
+      </c>
+      <c r="S20" s="45">
+        <v>0</v>
+      </c>
+      <c r="T20" s="45">
+        <v>0</v>
+      </c>
+      <c r="U20" s="45">
+        <v>0</v>
+      </c>
+      <c r="V20" s="45">
+        <v>0</v>
+      </c>
+      <c r="W20" s="69"/>
+      <c r="X20" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="45">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A21" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="45">
+        <v>2051886</v>
+      </c>
+      <c r="C21" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D21" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E21" s="45">
+        <v>4</v>
+      </c>
+      <c r="F21" s="45">
+        <v>425</v>
+      </c>
+      <c r="G21" s="45">
+        <v>54</v>
+      </c>
+      <c r="H21" s="45">
+        <v>17</v>
+      </c>
+      <c r="I21" s="45">
+        <v>6</v>
+      </c>
+      <c r="J21" s="45">
+        <v>3</v>
+      </c>
+      <c r="K21" s="45">
+        <v>1</v>
+      </c>
+      <c r="L21" s="45">
+        <v>0</v>
+      </c>
+      <c r="M21" s="45">
+        <v>1</v>
+      </c>
+      <c r="N21" s="45">
+        <v>0</v>
+      </c>
+      <c r="O21" s="45">
+        <v>0</v>
+      </c>
+      <c r="P21" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="45">
+        <v>0</v>
+      </c>
+      <c r="R21" s="45">
+        <v>0</v>
+      </c>
+      <c r="S21" s="45">
+        <v>0</v>
+      </c>
+      <c r="T21" s="45">
+        <v>0</v>
+      </c>
+      <c r="U21" s="45">
+        <v>0</v>
+      </c>
+      <c r="V21" s="45">
+        <v>0</v>
+      </c>
+      <c r="W21" s="69"/>
+      <c r="X21" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="45">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A22" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="45">
+        <v>2051886</v>
+      </c>
+      <c r="C22" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D22" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E22" s="45">
+        <v>1</v>
+      </c>
+      <c r="F22" s="45">
+        <v>372</v>
+      </c>
+      <c r="G22" s="45">
+        <v>41</v>
+      </c>
+      <c r="H22" s="45">
+        <v>16</v>
+      </c>
+      <c r="I22" s="45">
+        <v>21</v>
+      </c>
+      <c r="J22" s="45">
+        <v>2</v>
+      </c>
+      <c r="K22" s="45">
+        <v>0</v>
+      </c>
+      <c r="L22" s="45">
+        <v>0</v>
+      </c>
+      <c r="M22" s="45">
+        <v>0</v>
+      </c>
+      <c r="N22" s="45">
+        <v>0</v>
+      </c>
+      <c r="O22" s="45">
+        <v>0</v>
+      </c>
+      <c r="P22" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="45">
+        <v>0</v>
+      </c>
+      <c r="R22" s="45">
+        <v>0</v>
+      </c>
+      <c r="S22" s="45">
+        <v>0</v>
+      </c>
+      <c r="T22" s="45">
+        <v>0</v>
+      </c>
+      <c r="U22" s="45">
+        <v>0</v>
+      </c>
+      <c r="V22" s="45">
+        <v>0</v>
+      </c>
+      <c r="W22" s="69"/>
+      <c r="X22" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="45">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A23" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="45">
+        <v>2051886</v>
+      </c>
+      <c r="C23" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D23" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="45">
+        <v>6</v>
+      </c>
+      <c r="F23" s="45">
+        <v>388</v>
+      </c>
+      <c r="G23" s="45">
+        <v>53</v>
+      </c>
+      <c r="H23" s="45">
+        <v>14</v>
+      </c>
+      <c r="I23" s="45">
+        <v>23</v>
+      </c>
+      <c r="J23" s="45">
+        <v>2</v>
+      </c>
+      <c r="K23" s="45">
+        <v>0</v>
+      </c>
+      <c r="L23" s="45">
+        <v>0</v>
+      </c>
+      <c r="M23" s="45">
+        <v>1</v>
+      </c>
+      <c r="N23" s="45">
+        <v>0</v>
+      </c>
+      <c r="O23" s="45">
+        <v>0</v>
+      </c>
+      <c r="P23" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="45">
+        <v>0</v>
+      </c>
+      <c r="R23" s="45">
+        <v>0</v>
+      </c>
+      <c r="S23" s="45">
+        <v>0</v>
+      </c>
+      <c r="T23" s="45">
+        <v>0</v>
+      </c>
+      <c r="U23" s="45">
+        <v>0</v>
+      </c>
+      <c r="V23" s="45">
+        <v>0</v>
+      </c>
+      <c r="W23" s="69"/>
+      <c r="X23" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A24" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="45">
+        <v>2051886</v>
+      </c>
+      <c r="C24" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D24" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E24" s="45">
+        <v>0</v>
+      </c>
+      <c r="F24" s="45">
+        <v>381</v>
+      </c>
+      <c r="G24" s="45">
+        <v>47</v>
+      </c>
+      <c r="H24" s="45">
+        <v>15</v>
+      </c>
+      <c r="I24" s="45">
+        <v>9</v>
+      </c>
+      <c r="J24" s="45">
+        <v>1</v>
+      </c>
+      <c r="K24" s="45">
+        <v>0</v>
+      </c>
+      <c r="L24" s="45">
+        <v>0</v>
+      </c>
+      <c r="M24" s="45">
+        <v>1</v>
+      </c>
+      <c r="N24" s="45">
+        <v>0</v>
+      </c>
+      <c r="O24" s="45">
+        <v>0</v>
+      </c>
+      <c r="P24" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="45">
+        <v>0</v>
+      </c>
+      <c r="R24" s="45">
+        <v>0</v>
+      </c>
+      <c r="S24" s="45">
+        <v>0</v>
+      </c>
+      <c r="T24" s="45">
+        <v>0</v>
+      </c>
+      <c r="U24" s="45">
+        <v>0</v>
+      </c>
+      <c r="V24" s="45">
+        <v>0</v>
+      </c>
+      <c r="W24" s="69"/>
+      <c r="X24" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A25" s="45" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="45">
+        <v>2051886</v>
+      </c>
+      <c r="C25" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D25" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="45">
+        <v>1</v>
+      </c>
+      <c r="F25" s="45">
+        <v>407</v>
+      </c>
+      <c r="G25" s="45">
+        <v>40</v>
+      </c>
+      <c r="H25" s="45">
+        <v>17</v>
+      </c>
+      <c r="I25" s="45">
+        <v>10</v>
+      </c>
+      <c r="J25" s="45">
+        <v>3</v>
+      </c>
+      <c r="K25" s="45">
+        <v>0</v>
+      </c>
+      <c r="L25" s="45">
+        <v>0</v>
+      </c>
+      <c r="M25" s="45">
+        <v>0</v>
+      </c>
+      <c r="N25" s="45">
+        <v>0</v>
+      </c>
+      <c r="O25" s="45">
+        <v>0</v>
+      </c>
+      <c r="P25" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="45">
+        <v>0</v>
+      </c>
+      <c r="R25" s="45">
+        <v>0</v>
+      </c>
+      <c r="S25" s="45">
+        <v>0</v>
+      </c>
+      <c r="T25" s="45">
+        <v>0</v>
+      </c>
+      <c r="U25" s="45">
+        <v>0</v>
+      </c>
+      <c r="V25" s="45">
+        <v>0</v>
+      </c>
+      <c r="W25" s="69"/>
+      <c r="X25" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="45">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A26" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="45">
+        <v>5804453</v>
+      </c>
+      <c r="C26" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" s="45">
+        <v>4</v>
+      </c>
+      <c r="F26" s="45">
+        <v>1738</v>
+      </c>
+      <c r="G26" s="45">
+        <v>18</v>
+      </c>
+      <c r="H26" s="45">
+        <v>118</v>
+      </c>
+      <c r="I26" s="45">
+        <v>5</v>
+      </c>
+      <c r="J26" s="45">
+        <v>7</v>
+      </c>
+      <c r="K26" s="45">
+        <v>0</v>
+      </c>
+      <c r="L26" s="45">
+        <v>1</v>
+      </c>
+      <c r="M26" s="45">
+        <v>0</v>
+      </c>
+      <c r="N26" s="45">
+        <v>0</v>
+      </c>
+      <c r="O26" s="45">
+        <v>0</v>
+      </c>
+      <c r="P26" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="45">
+        <v>0</v>
+      </c>
+      <c r="R26" s="45">
+        <v>0</v>
+      </c>
+      <c r="S26" s="45">
+        <v>0</v>
+      </c>
+      <c r="T26" s="45">
+        <v>0</v>
+      </c>
+      <c r="U26" s="45">
+        <v>0</v>
+      </c>
+      <c r="V26" s="45">
+        <v>0</v>
+      </c>
+      <c r="W26" s="69"/>
+      <c r="X26" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y26" s="45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A27" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="45">
+        <v>5804453</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D27" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="45">
+        <v>2</v>
+      </c>
+      <c r="F27" s="45">
+        <v>1611</v>
+      </c>
+      <c r="G27" s="45">
+        <v>14</v>
+      </c>
+      <c r="H27" s="45">
+        <v>104</v>
+      </c>
+      <c r="I27" s="45">
+        <v>4</v>
+      </c>
+      <c r="J27" s="45">
+        <v>7</v>
+      </c>
+      <c r="K27" s="45">
+        <v>0</v>
+      </c>
+      <c r="L27" s="45">
+        <v>0</v>
+      </c>
+      <c r="M27" s="45">
+        <v>0</v>
+      </c>
+      <c r="N27" s="45">
+        <v>0</v>
+      </c>
+      <c r="O27" s="45">
+        <v>0</v>
+      </c>
+      <c r="P27" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="45">
+        <v>0</v>
+      </c>
+      <c r="R27" s="45">
+        <v>0</v>
+      </c>
+      <c r="S27" s="45">
+        <v>0</v>
+      </c>
+      <c r="T27" s="45">
+        <v>0</v>
+      </c>
+      <c r="U27" s="45">
+        <v>0</v>
+      </c>
+      <c r="V27" s="45">
+        <v>0</v>
+      </c>
+      <c r="W27" s="69"/>
+      <c r="X27" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y27" s="45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A28" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B28" s="45">
+        <v>5804453</v>
+      </c>
+      <c r="C28" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="45">
+        <v>2</v>
+      </c>
+      <c r="F28" s="45">
+        <v>1612</v>
+      </c>
+      <c r="G28" s="45">
+        <v>16</v>
+      </c>
+      <c r="H28" s="45">
+        <v>95</v>
+      </c>
+      <c r="I28" s="45">
+        <v>3</v>
+      </c>
+      <c r="J28" s="45">
+        <v>8</v>
+      </c>
+      <c r="K28" s="45">
+        <v>0</v>
+      </c>
+      <c r="L28" s="45">
+        <v>0</v>
+      </c>
+      <c r="M28" s="45">
+        <v>0</v>
+      </c>
+      <c r="N28" s="45">
+        <v>0</v>
+      </c>
+      <c r="O28" s="45">
+        <v>0</v>
+      </c>
+      <c r="P28" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="45">
+        <v>0</v>
+      </c>
+      <c r="R28" s="45">
+        <v>0</v>
+      </c>
+      <c r="S28" s="45">
+        <v>0</v>
+      </c>
+      <c r="T28" s="45">
+        <v>0</v>
+      </c>
+      <c r="U28" s="45">
+        <v>0</v>
+      </c>
+      <c r="V28" s="45">
+        <v>0</v>
+      </c>
+      <c r="W28" s="69"/>
+      <c r="X28" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y28" s="45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A29" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" s="45">
+        <v>5804453</v>
+      </c>
+      <c r="C29" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D29" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="45">
+        <v>2</v>
+      </c>
+      <c r="F29" s="45">
+        <v>1562</v>
+      </c>
+      <c r="G29" s="45">
+        <v>15</v>
+      </c>
+      <c r="H29" s="45">
+        <v>99</v>
+      </c>
+      <c r="I29" s="45">
+        <v>3</v>
+      </c>
+      <c r="J29" s="45">
+        <v>6</v>
+      </c>
+      <c r="K29" s="45">
+        <v>0</v>
+      </c>
+      <c r="L29" s="45">
+        <v>0</v>
+      </c>
+      <c r="M29" s="45">
+        <v>0</v>
+      </c>
+      <c r="N29" s="45">
+        <v>0</v>
+      </c>
+      <c r="O29" s="45">
+        <v>0</v>
+      </c>
+      <c r="P29" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="45">
+        <v>0</v>
+      </c>
+      <c r="R29" s="45">
+        <v>0</v>
+      </c>
+      <c r="S29" s="45">
+        <v>0</v>
+      </c>
+      <c r="T29" s="45">
+        <v>0</v>
+      </c>
+      <c r="U29" s="45">
+        <v>0</v>
+      </c>
+      <c r="V29" s="45">
+        <v>0</v>
+      </c>
+      <c r="W29" s="69"/>
+      <c r="X29" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y29" s="45">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A30" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="45">
+        <v>5804453</v>
+      </c>
+      <c r="C30" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D30" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E30" s="45">
+        <v>4</v>
+      </c>
+      <c r="F30" s="45">
+        <v>1554</v>
+      </c>
+      <c r="G30" s="45">
+        <v>9</v>
+      </c>
+      <c r="H30" s="45">
+        <v>102</v>
+      </c>
+      <c r="I30" s="45">
+        <v>4</v>
+      </c>
+      <c r="J30" s="45">
+        <v>7</v>
+      </c>
+      <c r="K30" s="45">
+        <v>0</v>
+      </c>
+      <c r="L30" s="45">
+        <v>0</v>
+      </c>
+      <c r="M30" s="45">
+        <v>0</v>
+      </c>
+      <c r="N30" s="45">
+        <v>0</v>
+      </c>
+      <c r="O30" s="45">
+        <v>0</v>
+      </c>
+      <c r="P30" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="45">
+        <v>0</v>
+      </c>
+      <c r="R30" s="45">
+        <v>0</v>
+      </c>
+      <c r="S30" s="45">
+        <v>0</v>
+      </c>
+      <c r="T30" s="45">
+        <v>0</v>
+      </c>
+      <c r="U30" s="45">
+        <v>0</v>
+      </c>
+      <c r="V30" s="45">
+        <v>0</v>
+      </c>
+      <c r="W30" s="69"/>
+      <c r="X30" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y30" s="45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A31" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B31" s="45">
+        <v>5804453</v>
+      </c>
+      <c r="C31" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="D31" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E31" s="45">
+        <v>4</v>
+      </c>
+      <c r="F31" s="45">
+        <v>1568</v>
+      </c>
+      <c r="G31" s="45">
+        <v>13</v>
+      </c>
+      <c r="H31" s="45">
+        <v>98</v>
+      </c>
+      <c r="I31" s="45">
+        <v>7</v>
+      </c>
+      <c r="J31" s="45">
+        <v>7</v>
+      </c>
+      <c r="K31" s="45">
+        <v>0</v>
+      </c>
+      <c r="L31" s="45">
+        <v>1</v>
+      </c>
+      <c r="M31" s="45">
+        <v>0</v>
+      </c>
+      <c r="N31" s="45">
+        <v>0</v>
+      </c>
+      <c r="O31" s="45">
+        <v>0</v>
+      </c>
+      <c r="P31" s="45">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="45">
+        <v>0</v>
+      </c>
+      <c r="R31" s="45">
+        <v>0</v>
+      </c>
+      <c r="S31" s="45">
+        <v>0</v>
+      </c>
+      <c r="T31" s="45">
+        <v>0</v>
+      </c>
+      <c r="U31" s="45">
+        <v>0</v>
+      </c>
+      <c r="V31" s="45">
+        <v>0</v>
+      </c>
+      <c r="W31" s="69"/>
+      <c r="X31" s="45">
+        <v>3</v>
+      </c>
+      <c r="Y31" s="45">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A32" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B32" s="45">
+        <v>5417034</v>
+      </c>
+      <c r="C32" s="45" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E32" s="45">
+        <v>22</v>
+      </c>
+      <c r="F32" s="45">
+        <v>1967</v>
+      </c>
+      <c r="G32" s="45">
+        <v>44</v>
+      </c>
+      <c r="H32" s="45">
+        <v>110</v>
+      </c>
+      <c r="I32" s="45">
+        <v>13</v>
+      </c>
+      <c r="J32" s="45">
+        <v>9</v>
+      </c>
+      <c r="K32" s="45">
+        <v>5</v>
+      </c>
+      <c r="L32" s="45">
+        <v>1</v>
+      </c>
+      <c r="M32" s="45">
+        <v>8</v>
+      </c>
+      <c r="N32" s="45">
+        <v>1</v>
+      </c>
+      <c r="O32" s="45">
+        <v>2</v>
+      </c>
+      <c r="P32" s="45">
+        <v>4</v>
+      </c>
+      <c r="Q32" s="45">
+        <v>2</v>
+      </c>
+      <c r="R32" s="45">
+        <v>3</v>
+      </c>
+      <c r="S32" s="45">
+        <v>3</v>
+      </c>
+      <c r="T32" s="45">
+        <v>1</v>
+      </c>
+      <c r="U32" s="45">
+        <v>1</v>
+      </c>
+      <c r="V32" s="45">
+        <v>1</v>
+      </c>
+      <c r="W32" s="69"/>
+      <c r="X32" s="45">
+        <v>1</v>
+      </c>
+      <c r="Y32" s="45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A33" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" s="45">
+        <v>5417034</v>
+      </c>
+      <c r="C33" s="45" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="45">
+        <v>22</v>
+      </c>
+      <c r="F33" s="45">
+        <v>2005</v>
+      </c>
+      <c r="G33" s="45">
+        <v>47</v>
+      </c>
+      <c r="H33" s="45">
+        <v>124</v>
+      </c>
+      <c r="I33" s="45">
+        <v>14</v>
+      </c>
+      <c r="J33" s="45">
+        <v>7</v>
+      </c>
+      <c r="K33" s="45">
+        <v>5</v>
+      </c>
+      <c r="L33" s="45">
+        <v>1</v>
+      </c>
+      <c r="M33" s="45">
+        <v>8</v>
+      </c>
+      <c r="N33" s="45">
+        <v>1</v>
+      </c>
+      <c r="O33" s="45">
+        <v>2</v>
+      </c>
+      <c r="P33" s="45">
+        <v>4</v>
+      </c>
+      <c r="Q33" s="45">
+        <v>2</v>
+      </c>
+      <c r="R33" s="45">
+        <v>3</v>
+      </c>
+      <c r="S33" s="45">
+        <v>3</v>
+      </c>
+      <c r="T33" s="45">
+        <v>1</v>
+      </c>
+      <c r="U33" s="45">
+        <v>1</v>
+      </c>
+      <c r="V33" s="45">
+        <v>1</v>
+      </c>
+      <c r="W33" s="69"/>
+      <c r="X33" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y33" s="45">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A34" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B34" s="45">
+        <v>5417034</v>
+      </c>
+      <c r="C34" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E34" s="45">
+        <v>5</v>
+      </c>
+      <c r="F34" s="45">
+        <v>1632</v>
+      </c>
+      <c r="G34" s="45">
+        <v>26</v>
+      </c>
+      <c r="H34" s="45">
+        <v>89</v>
+      </c>
+      <c r="I34" s="45">
+        <v>10</v>
+      </c>
+      <c r="J34" s="45">
+        <v>7</v>
+      </c>
+      <c r="K34" s="45">
+        <v>5</v>
+      </c>
+      <c r="L34" s="45">
+        <v>0</v>
+      </c>
+      <c r="M34" s="45">
+        <v>8</v>
+      </c>
+      <c r="N34" s="45">
+        <v>1</v>
+      </c>
+      <c r="O34" s="45">
+        <v>2</v>
+      </c>
+      <c r="P34" s="45">
+        <v>4</v>
+      </c>
+      <c r="Q34" s="45">
+        <v>2</v>
+      </c>
+      <c r="R34" s="45">
+        <v>3</v>
+      </c>
+      <c r="S34" s="45">
+        <v>3</v>
+      </c>
+      <c r="T34" s="45">
+        <v>1</v>
+      </c>
+      <c r="U34" s="45">
+        <v>1</v>
+      </c>
+      <c r="V34" s="45">
+        <v>1</v>
+      </c>
+      <c r="W34" s="69"/>
+      <c r="X34" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="45">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A35" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B35" s="45">
+        <v>5417034</v>
+      </c>
+      <c r="C35" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="D35" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="45">
+        <v>13</v>
+      </c>
+      <c r="F35" s="45">
+        <v>1720</v>
+      </c>
+      <c r="G35" s="45">
+        <v>42</v>
+      </c>
+      <c r="H35" s="45">
+        <v>91</v>
+      </c>
+      <c r="I35" s="45">
+        <v>11</v>
+      </c>
+      <c r="J35" s="45">
+        <v>4</v>
+      </c>
+      <c r="K35" s="45">
+        <v>5</v>
+      </c>
+      <c r="L35" s="45">
+        <v>0</v>
+      </c>
+      <c r="M35" s="45">
+        <v>8</v>
+      </c>
+      <c r="N35" s="45">
+        <v>1</v>
+      </c>
+      <c r="O35" s="45">
+        <v>2</v>
+      </c>
+      <c r="P35" s="45">
+        <v>4</v>
+      </c>
+      <c r="Q35" s="45">
+        <v>2</v>
+      </c>
+      <c r="R35" s="45">
+        <v>3</v>
+      </c>
+      <c r="S35" s="45">
+        <v>3</v>
+      </c>
+      <c r="T35" s="45">
+        <v>1</v>
+      </c>
+      <c r="U35" s="45">
+        <v>1</v>
+      </c>
+      <c r="V35" s="45">
+        <v>1</v>
+      </c>
+      <c r="W35" s="69"/>
+      <c r="X35" s="45">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A36" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="B36" s="45">
+        <v>5417034</v>
+      </c>
+      <c r="C36" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="D36" s="45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="45">
+        <v>5</v>
+      </c>
+      <c r="F36" s="45">
+        <v>1604</v>
+      </c>
+      <c r="G36" s="45">
+        <v>38</v>
+      </c>
+      <c r="H36" s="45">
+        <v>88</v>
+      </c>
+      <c r="I36" s="45">
+        <v>12</v>
+      </c>
+      <c r="J36" s="45">
+        <v>7</v>
+      </c>
+      <c r="K36" s="45">
+        <v>5</v>
+      </c>
+      <c r="L36" s="45">
+        <v>1</v>
+      </c>
+      <c r="M36" s="45">
+        <v>8</v>
+      </c>
+      <c r="N36" s="45">
+        <v>0</v>
+      </c>
+      <c r="O36" s="45">
+        <v>2</v>
+      </c>
+      <c r="P36" s="45">
+        <v>4</v>
+      </c>
+      <c r="Q36" s="45">
+        <v>2</v>
+      </c>
+      <c r="R36" s="45">
+        <v>3</v>
+      </c>
+      <c r="S36" s="45">
+        <v>3</v>
+      </c>
+      <c r="T36" s="45">
+        <v>1</v>
+      </c>
+      <c r="U36" s="45">
+        <v>1</v>
+      </c>
+      <c r="V36" s="45">
+        <v>1</v>
+      </c>
+      <c r="W36" s="69"/>
+      <c r="X36" s="45">
+        <v>2</v>
+      </c>
+      <c r="Y36" s="45">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="B37" s="46">
+        <v>5417034</v>
+      </c>
+      <c r="C37" s="46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D37" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="46">
+        <v>21</v>
+      </c>
+      <c r="F37" s="46">
+        <v>1945</v>
+      </c>
+      <c r="G37" s="46">
+        <v>38</v>
+      </c>
+      <c r="H37" s="46">
+        <v>118</v>
+      </c>
+      <c r="I37" s="46">
+        <v>12</v>
+      </c>
+      <c r="J37" s="46">
+        <v>8</v>
+      </c>
+      <c r="K37" s="46">
+        <v>5</v>
+      </c>
+      <c r="L37" s="46">
+        <v>0</v>
+      </c>
+      <c r="M37" s="46">
+        <v>8</v>
+      </c>
+      <c r="N37" s="46">
+        <v>1</v>
+      </c>
+      <c r="O37" s="46">
+        <v>2</v>
+      </c>
+      <c r="P37" s="46">
+        <v>4</v>
+      </c>
+      <c r="Q37" s="46">
+        <v>2</v>
+      </c>
+      <c r="R37" s="46">
+        <v>3</v>
+      </c>
+      <c r="S37" s="46">
+        <v>3</v>
+      </c>
+      <c r="T37" s="46">
+        <v>1</v>
+      </c>
+      <c r="U37" s="46">
+        <v>1</v>
+      </c>
+      <c r="V37" s="46">
+        <v>1</v>
+      </c>
+      <c r="W37" s="69"/>
+      <c r="X37" s="46">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="46">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="38" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="W38" s="69"/>
+      <c r="X38" s="43"/>
+      <c r="Y38" s="43"/>
+    </row>
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A39" s="18"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="48" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" s="65">
+        <f>SUM(E$2:E$37)</f>
+        <v>1908</v>
+      </c>
+      <c r="F39" s="65">
+        <f>SUM(F$2:F$37)</f>
+        <v>42153</v>
+      </c>
+      <c r="G39" s="65">
+        <f>SUM(G$2:G$37)</f>
+        <v>4509</v>
+      </c>
+      <c r="H39" s="65">
+        <f>SUM(H$2:H$37)</f>
+        <v>2370</v>
+      </c>
+      <c r="I39" s="65">
+        <f>SUM(I$2:I$37)</f>
+        <v>201</v>
+      </c>
+      <c r="J39" s="65">
+        <f>SUM(J$2:J$37)</f>
+        <v>179</v>
+      </c>
+      <c r="K39" s="65">
+        <f>SUM(K$2:K$37)</f>
+        <v>31</v>
+      </c>
+      <c r="L39" s="65">
+        <f>SUM(L$2:L$37)</f>
+        <v>9</v>
+      </c>
+      <c r="M39" s="65">
+        <f t="shared" ref="M39:Y39" si="0">SUM(M$2:M$37)</f>
+        <v>52</v>
+      </c>
+      <c r="N39" s="65">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="O39" s="65">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="P39" s="65">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="Q39" s="65">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="R39" s="65">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="S39" s="65">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="T39" s="65">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="U39" s="65">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="V39" s="65">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="W39" s="52"/>
+      <c r="X39" s="65">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="Y39" s="65">
+        <f t="shared" si="0"/>
+        <v>6770</v>
+      </c>
+    </row>
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="A40" s="18"/>
+      <c r="B40" s="18"/>
+      <c r="C40" s="18"/>
+      <c r="D40" s="55" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" s="66">
+        <f>E39/SUM($E39:$V39)</f>
+        <v>3.7033442673861147E-2</v>
+      </c>
+      <c r="F40" s="66">
+        <f t="shared" ref="F40:V40" si="1">F39/SUM($E39:$V39)</f>
+        <v>0.81817123114846368</v>
+      </c>
+      <c r="G40" s="66">
+        <f t="shared" si="1"/>
+        <v>8.7517711224549211E-2</v>
+      </c>
+      <c r="H40" s="66">
+        <f t="shared" si="1"/>
+        <v>4.6000659925079096E-2</v>
+      </c>
+      <c r="I40" s="66">
+        <f t="shared" si="1"/>
+        <v>3.9013217911143031E-3</v>
+      </c>
+      <c r="J40" s="66">
+        <f t="shared" si="1"/>
+        <v>3.4743114458182099E-3</v>
+      </c>
+      <c r="K40" s="66">
+        <f t="shared" si="1"/>
+        <v>6.0169639564449447E-4</v>
+      </c>
+      <c r="L40" s="66">
+        <f t="shared" si="1"/>
+        <v>1.7468605034840162E-4</v>
+      </c>
+      <c r="M40" s="66">
+        <f t="shared" si="1"/>
+        <v>1.0092971797907649E-3</v>
+      </c>
+      <c r="N40" s="66">
+        <f t="shared" si="1"/>
+        <v>1.3586692804875682E-4</v>
+      </c>
+      <c r="O40" s="66">
+        <f t="shared" si="1"/>
+        <v>2.3291473379786882E-4</v>
+      </c>
+      <c r="P40" s="66">
+        <f t="shared" si="1"/>
+        <v>4.6582946759573764E-4</v>
+      </c>
+      <c r="Q40" s="66">
+        <f t="shared" si="1"/>
+        <v>2.3291473379786882E-4</v>
+      </c>
+      <c r="R40" s="66">
+        <f t="shared" si="1"/>
+        <v>3.4937210069680325E-4</v>
+      </c>
+      <c r="S40" s="66">
+        <f t="shared" si="1"/>
+        <v>3.4937210069680325E-4</v>
+      </c>
+      <c r="T40" s="66">
+        <f t="shared" si="1"/>
+        <v>1.1645736689893441E-4</v>
+      </c>
+      <c r="U40" s="66">
+        <f t="shared" si="1"/>
+        <v>1.1645736689893441E-4</v>
+      </c>
+      <c r="V40" s="66">
+        <f t="shared" si="1"/>
+        <v>1.1645736689893441E-4</v>
+      </c>
+      <c r="W40" s="70"/>
+      <c r="X40" s="66">
+        <f>X39/SUM($X39:$Y39)</f>
+        <v>4.850801117154197E-3</v>
+      </c>
+      <c r="Y40" s="66">
+        <f>Y39/SUM($X39:$Y39)</f>
+        <v>0.99514919888284581</v>
+      </c>
+    </row>
+    <row r="41" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="18"/>
+      <c r="C41" s="18"/>
+      <c r="D41" s="50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="67">
+        <f>1000000*AVERAGE(AVERAGE(E$2:E$7)/$B$2, AVERAGE(E$8:E$13)/$B$8, AVERAGE(E$14:E$19)/$B$14, AVERAGE(E$20:E$25)/$B$20, AVERAGE(E$26:E$31)/$B$26, AVERAGE(E$32:E$37)/$B$32)</f>
+        <v>11.029774811541976</v>
+      </c>
+      <c r="F41" s="67">
+        <f>1000000*AVERAGE(AVERAGE(F$2:F$7)/$B$2, AVERAGE(F$8:F$13)/$B$8, AVERAGE(F$14:F$19)/$B$14, AVERAGE(F$20:F$25)/$B$20, AVERAGE(F$26:F$31)/$B$26, AVERAGE(F$32:F$37)/$B$32)</f>
+        <v>252.62059610129776</v>
+      </c>
+      <c r="G41" s="67">
+        <f>1000000*AVERAGE(AVERAGE(G$2:G$7)/$B$2, AVERAGE(G$8:G$13)/$B$8, AVERAGE(G$14:G$19)/$B$14, AVERAGE(G$20:G$25)/$B$20, AVERAGE(G$26:G$31)/$B$26, AVERAGE(G$32:G$37)/$B$32)</f>
+        <v>27.944140358014245</v>
+      </c>
+      <c r="H41" s="67">
+        <f>1000000*AVERAGE(AVERAGE(H$2:H$7)/$B$2, AVERAGE(H$8:H$13)/$B$8, AVERAGE(H$14:H$19)/$B$14, AVERAGE(H$20:H$25)/$B$20, AVERAGE(H$26:H$31)/$B$26, AVERAGE(H$32:H$37)/$B$32)</f>
+        <v>13.648650732539526</v>
+      </c>
+      <c r="I41" s="67">
+        <f>1000000*AVERAGE(AVERAGE(I$2:I$7)/$B$2, AVERAGE(I$8:I$13)/$B$8, AVERAGE(I$14:I$19)/$B$14, AVERAGE(I$20:I$25)/$B$20, AVERAGE(I$26:I$31)/$B$26, AVERAGE(I$32:I$37)/$B$32)</f>
+        <v>1.7420311099455426</v>
+      </c>
+      <c r="J41" s="67">
+        <f>1000000*AVERAGE(AVERAGE(J$2:J$7)/$B$2, AVERAGE(J$8:J$13)/$B$8, AVERAGE(J$14:J$19)/$B$14, AVERAGE(J$20:J$25)/$B$20, AVERAGE(J$26:J$31)/$B$26, AVERAGE(J$32:J$37)/$B$32)</f>
+        <v>1.0801245047251604</v>
+      </c>
+      <c r="K41" s="67">
+        <f>1000000*AVERAGE(AVERAGE(K$2:K$7)/$B$2, AVERAGE(K$8:K$13)/$B$8, AVERAGE(K$14:K$19)/$B$14, AVERAGE(K$20:K$25)/$B$20, AVERAGE(K$26:K$31)/$B$26, AVERAGE(K$32:K$37)/$B$32)</f>
+        <v>0.16737340225252514</v>
+      </c>
+      <c r="L41" s="67">
+        <f>1000000*AVERAGE(AVERAGE(L$2:L$7)/$B$2, AVERAGE(L$8:L$13)/$B$8, AVERAGE(L$14:L$19)/$B$14, AVERAGE(L$20:L$25)/$B$20, AVERAGE(L$26:L$31)/$B$26, AVERAGE(L$32:L$37)/$B$32)</f>
+        <v>4.7921450481937126E-2</v>
+      </c>
+      <c r="M41" s="67">
+        <f t="shared" ref="M41:Y41" si="2">1000000*AVERAGE(AVERAGE(M$2:M$7)/$B$2, AVERAGE(M$8:M$13)/$B$8, AVERAGE(M$14:M$19)/$B$14, AVERAGE(M$20:M$25)/$B$20, AVERAGE(M$26:M$31)/$B$26, AVERAGE(M$32:M$37)/$B$32)</f>
+        <v>0.30028787760800862</v>
+      </c>
+      <c r="N41" s="67">
+        <f t="shared" si="2"/>
+        <v>3.7122628226365278E-2</v>
+      </c>
+      <c r="O41" s="67">
+        <f t="shared" si="2"/>
+        <v>6.153428856701533E-2</v>
+      </c>
+      <c r="P41" s="67">
+        <f t="shared" si="2"/>
+        <v>0.12306857713403066</v>
+      </c>
+      <c r="Q41" s="67">
+        <f t="shared" si="2"/>
+        <v>6.153428856701533E-2</v>
+      </c>
+      <c r="R41" s="67">
+        <f t="shared" si="2"/>
+        <v>9.2301432850522988E-2</v>
+      </c>
+      <c r="S41" s="67">
+        <f t="shared" si="2"/>
+        <v>9.2301432850522988E-2</v>
+      </c>
+      <c r="T41" s="67">
+        <f t="shared" si="2"/>
+        <v>3.0767144283507665E-2</v>
+      </c>
+      <c r="U41" s="67">
+        <f t="shared" si="2"/>
+        <v>3.0767144283507665E-2</v>
+      </c>
+      <c r="V41" s="67">
+        <f t="shared" si="2"/>
+        <v>3.0767144283507665E-2</v>
+      </c>
+      <c r="W41" s="71"/>
+      <c r="X41" s="67">
+        <f t="shared" si="2"/>
+        <v>0.1770083644732047</v>
+      </c>
+      <c r="Y41" s="67">
+        <f t="shared" si="2"/>
+        <v>41.52964064770871</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C683ED5-D059-264A-B255-B810102DA49B}">
   <dimension ref="A1:AK20"/>
   <sheetViews>
@@ -6522,7 +9658,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8770,7 +11906,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F523D0-732D-5F40-A24A-A2A97F9AE187}">
   <dimension ref="A1:B7"/>
   <sheetViews>

--- a/table_s3_consistency_test_results.xlsx
+++ b/table_s3_consistency_test_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ryan/Dropbox/Uni_research/Projects/Trycycler/PAPER/GitHub_repo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A1EA9AC-462F-5343-84FC-9C3C867CD7E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5314974F-C0B8-284B-96A5-0F08B244997B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4400" yWindow="-22780" windowWidth="33600" windowHeight="18800" xr2:uid="{47520A07-41C4-A945-98BF-A12838741A71}"/>
   </bookViews>
@@ -407,24 +407,6 @@
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
 Comment:
     The extra contig in this assembly was cross-barcode contamination: Haemophilus M1C132_1 plasmid 3.</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={E64E296C-05EC-B448-95E0-17041CF6E7D5}</author>
-  </authors>
-  <commentList>
-    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{E64E296C-05EC-B448-95E0-17041CF6E7D5}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    the Trycycler developer</t>
       </text>
     </comment>
   </commentList>
@@ -1038,7 +1020,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1196,19 +1178,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="hair">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1216,7 +1185,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
@@ -1387,15 +1356,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1416,6 +1376,12 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1869,14 +1835,6 @@
 </ThreadedComments>
 </file>
 
-<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="A2" dT="2021-01-20T02:08:35.15" personId="{CBA66986-4746-7943-A9A3-A6D61178CC74}" id="{E64E296C-05EC-B448-95E0-17041CF6E7D5}">
-    <text>the Trycycler developer</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4884A9A2-6291-734B-A356-71679BA59ECA}">
   <dimension ref="A1:A23"/>
@@ -1926,9 +1884,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D186204F-DC76-804A-9B84-1F188FC67AA4}">
   <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1938,49 +1894,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:33" ht="43" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="63" t="s">
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="69" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="63" t="s">
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="69" t="s">
         <v>14</v>
       </c>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="63" t="s">
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="63" t="s">
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="70"/>
+      <c r="T1" s="70"/>
+      <c r="U1" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="63" t="s">
+      <c r="V1" s="70"/>
+      <c r="W1" s="70"/>
+      <c r="X1" s="70"/>
+      <c r="Y1" s="70"/>
+      <c r="Z1" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
+      <c r="AA1" s="70"/>
+      <c r="AB1" s="70"/>
+      <c r="AC1" s="70"/>
+      <c r="AD1" s="70"/>
+      <c r="AE1" s="70"/>
+      <c r="AF1" s="70"/>
       <c r="AG1" s="19"/>
     </row>
     <row r="2" spans="1:33" ht="75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -2993,7 +2949,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E94" sqref="E94"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6585,7 +6541,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X1" sqref="X1:Y1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6635,41 +6591,41 @@
       <c r="L1" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="M1" s="68" t="s">
+      <c r="M1" s="65" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="68" t="s">
+      <c r="N1" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="O1" s="68" t="s">
+      <c r="O1" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="68" t="s">
+      <c r="P1" s="65" t="s">
         <v>32</v>
       </c>
-      <c r="Q1" s="68" t="s">
+      <c r="Q1" s="65" t="s">
         <v>33</v>
       </c>
-      <c r="R1" s="68" t="s">
+      <c r="R1" s="65" t="s">
         <v>34</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="S1" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="68" t="s">
+      <c r="T1" s="65" t="s">
         <v>51</v>
       </c>
-      <c r="U1" s="68" t="s">
+      <c r="U1" s="65" t="s">
         <v>52</v>
       </c>
-      <c r="V1" s="68" t="s">
+      <c r="V1" s="65" t="s">
         <v>55</v>
       </c>
       <c r="W1" s="53"/>
-      <c r="X1" s="68" t="s">
+      <c r="X1" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="Y1" s="68" t="s">
+      <c r="Y1" s="65" t="s">
         <v>92</v>
       </c>
     </row>
@@ -6740,7 +6696,7 @@
       <c r="V2" s="44">
         <v>0</v>
       </c>
-      <c r="W2" s="69"/>
+      <c r="W2" s="66"/>
       <c r="X2" s="44">
         <v>1</v>
       </c>
@@ -6815,7 +6771,7 @@
       <c r="V3" s="45">
         <v>0</v>
       </c>
-      <c r="W3" s="69"/>
+      <c r="W3" s="66"/>
       <c r="X3" s="45">
         <v>0</v>
       </c>
@@ -6890,7 +6846,7 @@
       <c r="V4" s="45">
         <v>0</v>
       </c>
-      <c r="W4" s="69"/>
+      <c r="W4" s="66"/>
       <c r="X4" s="45">
         <v>1</v>
       </c>
@@ -6965,7 +6921,7 @@
       <c r="V5" s="45">
         <v>0</v>
       </c>
-      <c r="W5" s="69"/>
+      <c r="W5" s="66"/>
       <c r="X5" s="45">
         <v>0</v>
       </c>
@@ -7040,7 +6996,7 @@
       <c r="V6" s="45">
         <v>0</v>
       </c>
-      <c r="W6" s="69"/>
+      <c r="W6" s="66"/>
       <c r="X6" s="45">
         <v>1</v>
       </c>
@@ -7115,7 +7071,7 @@
       <c r="V7" s="45">
         <v>0</v>
       </c>
-      <c r="W7" s="69"/>
+      <c r="W7" s="66"/>
       <c r="X7" s="45">
         <v>1</v>
       </c>
@@ -7190,7 +7146,7 @@
       <c r="V8" s="45">
         <v>0</v>
       </c>
-      <c r="W8" s="69"/>
+      <c r="W8" s="66"/>
       <c r="X8" s="45">
         <v>1</v>
       </c>
@@ -7265,7 +7221,7 @@
       <c r="V9" s="45">
         <v>0</v>
       </c>
-      <c r="W9" s="69"/>
+      <c r="W9" s="66"/>
       <c r="X9" s="45">
         <v>1</v>
       </c>
@@ -7340,7 +7296,7 @@
       <c r="V10" s="45">
         <v>0</v>
       </c>
-      <c r="W10" s="69"/>
+      <c r="W10" s="66"/>
       <c r="X10" s="45">
         <v>1</v>
       </c>
@@ -7415,7 +7371,7 @@
       <c r="V11" s="45">
         <v>0</v>
       </c>
-      <c r="W11" s="69"/>
+      <c r="W11" s="66"/>
       <c r="X11" s="45">
         <v>1</v>
       </c>
@@ -7490,7 +7446,7 @@
       <c r="V12" s="45">
         <v>0</v>
       </c>
-      <c r="W12" s="69"/>
+      <c r="W12" s="66"/>
       <c r="X12" s="45">
         <v>1</v>
       </c>
@@ -7565,7 +7521,7 @@
       <c r="V13" s="45">
         <v>0</v>
       </c>
-      <c r="W13" s="69"/>
+      <c r="W13" s="66"/>
       <c r="X13" s="45">
         <v>1</v>
       </c>
@@ -7640,7 +7596,7 @@
       <c r="V14" s="45">
         <v>0</v>
       </c>
-      <c r="W14" s="69"/>
+      <c r="W14" s="66"/>
       <c r="X14" s="45">
         <v>0</v>
       </c>
@@ -7715,7 +7671,7 @@
       <c r="V15" s="45">
         <v>0</v>
       </c>
-      <c r="W15" s="69"/>
+      <c r="W15" s="66"/>
       <c r="X15" s="45">
         <v>0</v>
       </c>
@@ -7790,7 +7746,7 @@
       <c r="V16" s="45">
         <v>0</v>
       </c>
-      <c r="W16" s="69"/>
+      <c r="W16" s="66"/>
       <c r="X16" s="45">
         <v>0</v>
       </c>
@@ -7865,7 +7821,7 @@
       <c r="V17" s="45">
         <v>0</v>
       </c>
-      <c r="W17" s="69"/>
+      <c r="W17" s="66"/>
       <c r="X17" s="45">
         <v>0</v>
       </c>
@@ -7940,7 +7896,7 @@
       <c r="V18" s="45">
         <v>0</v>
       </c>
-      <c r="W18" s="69"/>
+      <c r="W18" s="66"/>
       <c r="X18" s="45">
         <v>0</v>
       </c>
@@ -8015,7 +7971,7 @@
       <c r="V19" s="45">
         <v>0</v>
       </c>
-      <c r="W19" s="69"/>
+      <c r="W19" s="66"/>
       <c r="X19" s="45">
         <v>1</v>
       </c>
@@ -8090,7 +8046,7 @@
       <c r="V20" s="45">
         <v>0</v>
       </c>
-      <c r="W20" s="69"/>
+      <c r="W20" s="66"/>
       <c r="X20" s="45">
         <v>0</v>
       </c>
@@ -8165,7 +8121,7 @@
       <c r="V21" s="45">
         <v>0</v>
       </c>
-      <c r="W21" s="69"/>
+      <c r="W21" s="66"/>
       <c r="X21" s="45">
         <v>0</v>
       </c>
@@ -8240,7 +8196,7 @@
       <c r="V22" s="45">
         <v>0</v>
       </c>
-      <c r="W22" s="69"/>
+      <c r="W22" s="66"/>
       <c r="X22" s="45">
         <v>0</v>
       </c>
@@ -8315,7 +8271,7 @@
       <c r="V23" s="45">
         <v>0</v>
       </c>
-      <c r="W23" s="69"/>
+      <c r="W23" s="66"/>
       <c r="X23" s="45">
         <v>0</v>
       </c>
@@ -8390,7 +8346,7 @@
       <c r="V24" s="45">
         <v>0</v>
       </c>
-      <c r="W24" s="69"/>
+      <c r="W24" s="66"/>
       <c r="X24" s="45">
         <v>0</v>
       </c>
@@ -8465,7 +8421,7 @@
       <c r="V25" s="45">
         <v>0</v>
       </c>
-      <c r="W25" s="69"/>
+      <c r="W25" s="66"/>
       <c r="X25" s="45">
         <v>0</v>
       </c>
@@ -8540,7 +8496,7 @@
       <c r="V26" s="45">
         <v>0</v>
       </c>
-      <c r="W26" s="69"/>
+      <c r="W26" s="66"/>
       <c r="X26" s="45">
         <v>3</v>
       </c>
@@ -8615,7 +8571,7 @@
       <c r="V27" s="45">
         <v>0</v>
       </c>
-      <c r="W27" s="69"/>
+      <c r="W27" s="66"/>
       <c r="X27" s="45">
         <v>3</v>
       </c>
@@ -8690,7 +8646,7 @@
       <c r="V28" s="45">
         <v>0</v>
       </c>
-      <c r="W28" s="69"/>
+      <c r="W28" s="66"/>
       <c r="X28" s="45">
         <v>3</v>
       </c>
@@ -8765,7 +8721,7 @@
       <c r="V29" s="45">
         <v>0</v>
       </c>
-      <c r="W29" s="69"/>
+      <c r="W29" s="66"/>
       <c r="X29" s="45">
         <v>3</v>
       </c>
@@ -8840,7 +8796,7 @@
       <c r="V30" s="45">
         <v>0</v>
       </c>
-      <c r="W30" s="69"/>
+      <c r="W30" s="66"/>
       <c r="X30" s="45">
         <v>2</v>
       </c>
@@ -8915,7 +8871,7 @@
       <c r="V31" s="45">
         <v>0</v>
       </c>
-      <c r="W31" s="69"/>
+      <c r="W31" s="66"/>
       <c r="X31" s="45">
         <v>3</v>
       </c>
@@ -8990,7 +8946,7 @@
       <c r="V32" s="45">
         <v>1</v>
       </c>
-      <c r="W32" s="69"/>
+      <c r="W32" s="66"/>
       <c r="X32" s="45">
         <v>1</v>
       </c>
@@ -9065,7 +9021,7 @@
       <c r="V33" s="45">
         <v>1</v>
       </c>
-      <c r="W33" s="69"/>
+      <c r="W33" s="66"/>
       <c r="X33" s="45">
         <v>2</v>
       </c>
@@ -9140,7 +9096,7 @@
       <c r="V34" s="45">
         <v>1</v>
       </c>
-      <c r="W34" s="69"/>
+      <c r="W34" s="66"/>
       <c r="X34" s="45">
         <v>0</v>
       </c>
@@ -9215,7 +9171,7 @@
       <c r="V35" s="45">
         <v>1</v>
       </c>
-      <c r="W35" s="69"/>
+      <c r="W35" s="66"/>
       <c r="X35" s="45">
         <v>0</v>
       </c>
@@ -9290,7 +9246,7 @@
       <c r="V36" s="45">
         <v>1</v>
       </c>
-      <c r="W36" s="69"/>
+      <c r="W36" s="66"/>
       <c r="X36" s="45">
         <v>2</v>
       </c>
@@ -9365,7 +9321,7 @@
       <c r="V37" s="46">
         <v>1</v>
       </c>
-      <c r="W37" s="69"/>
+      <c r="W37" s="66"/>
       <c r="X37" s="46">
         <v>0</v>
       </c>
@@ -9374,7 +9330,7 @@
       </c>
     </row>
     <row r="38" spans="1:25" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="W38" s="69"/>
+      <c r="W38" s="66"/>
       <c r="X38" s="43"/>
       <c r="Y38" s="43"/>
     </row>
@@ -9385,85 +9341,85 @@
       <c r="D39" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="E39" s="65">
-        <f>SUM(E$2:E$37)</f>
+      <c r="E39" s="62">
+        <f t="shared" ref="E39:L39" si="0">SUM(E$2:E$37)</f>
         <v>1908</v>
       </c>
-      <c r="F39" s="65">
-        <f>SUM(F$2:F$37)</f>
+      <c r="F39" s="62">
+        <f t="shared" si="0"/>
         <v>42153</v>
       </c>
-      <c r="G39" s="65">
-        <f>SUM(G$2:G$37)</f>
+      <c r="G39" s="62">
+        <f t="shared" si="0"/>
         <v>4509</v>
       </c>
-      <c r="H39" s="65">
-        <f>SUM(H$2:H$37)</f>
+      <c r="H39" s="62">
+        <f t="shared" si="0"/>
         <v>2370</v>
       </c>
-      <c r="I39" s="65">
-        <f>SUM(I$2:I$37)</f>
+      <c r="I39" s="62">
+        <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="J39" s="65">
-        <f>SUM(J$2:J$37)</f>
+      <c r="J39" s="62">
+        <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="K39" s="65">
-        <f>SUM(K$2:K$37)</f>
+      <c r="K39" s="62">
+        <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="L39" s="65">
-        <f>SUM(L$2:L$37)</f>
+      <c r="L39" s="62">
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="M39" s="65">
-        <f t="shared" ref="M39:Y39" si="0">SUM(M$2:M$37)</f>
+      <c r="M39" s="62">
+        <f t="shared" ref="M39:Y39" si="1">SUM(M$2:M$37)</f>
         <v>52</v>
       </c>
-      <c r="N39" s="65">
-        <f t="shared" si="0"/>
+      <c r="N39" s="62">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="O39" s="65">
-        <f t="shared" si="0"/>
+      <c r="O39" s="62">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="P39" s="65">
-        <f t="shared" si="0"/>
+      <c r="P39" s="62">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="Q39" s="65">
-        <f t="shared" si="0"/>
+      <c r="Q39" s="62">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="R39" s="65">
-        <f t="shared" si="0"/>
+      <c r="R39" s="62">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="S39" s="65">
-        <f t="shared" si="0"/>
+      <c r="S39" s="62">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="T39" s="65">
-        <f t="shared" si="0"/>
+      <c r="T39" s="62">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="U39" s="65">
-        <f t="shared" si="0"/>
+      <c r="U39" s="62">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="V39" s="65">
-        <f t="shared" si="0"/>
+      <c r="V39" s="62">
+        <f t="shared" si="1"/>
         <v>6</v>
       </c>
       <c r="W39" s="52"/>
-      <c r="X39" s="65">
-        <f t="shared" si="0"/>
+      <c r="X39" s="62">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="Y39" s="65">
-        <f t="shared" si="0"/>
+      <c r="Y39" s="62">
+        <f t="shared" si="1"/>
         <v>6770</v>
       </c>
     </row>
@@ -9474,84 +9430,84 @@
       <c r="D40" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="E40" s="66">
+      <c r="E40" s="63">
         <f>E39/SUM($E39:$V39)</f>
         <v>3.7033442673861147E-2</v>
       </c>
-      <c r="F40" s="66">
-        <f t="shared" ref="F40:V40" si="1">F39/SUM($E39:$V39)</f>
+      <c r="F40" s="63">
+        <f t="shared" ref="F40:V40" si="2">F39/SUM($E39:$V39)</f>
         <v>0.81817123114846368</v>
       </c>
-      <c r="G40" s="66">
-        <f t="shared" si="1"/>
+      <c r="G40" s="63">
+        <f t="shared" si="2"/>
         <v>8.7517711224549211E-2</v>
       </c>
-      <c r="H40" s="66">
-        <f t="shared" si="1"/>
+      <c r="H40" s="63">
+        <f t="shared" si="2"/>
         <v>4.6000659925079096E-2</v>
       </c>
-      <c r="I40" s="66">
-        <f t="shared" si="1"/>
+      <c r="I40" s="63">
+        <f t="shared" si="2"/>
         <v>3.9013217911143031E-3</v>
       </c>
-      <c r="J40" s="66">
-        <f t="shared" si="1"/>
+      <c r="J40" s="63">
+        <f t="shared" si="2"/>
         <v>3.4743114458182099E-3</v>
       </c>
-      <c r="K40" s="66">
-        <f t="shared" si="1"/>
+      <c r="K40" s="63">
+        <f t="shared" si="2"/>
         <v>6.0169639564449447E-4</v>
       </c>
-      <c r="L40" s="66">
-        <f t="shared" si="1"/>
+      <c r="L40" s="63">
+        <f t="shared" si="2"/>
         <v>1.7468605034840162E-4</v>
       </c>
-      <c r="M40" s="66">
-        <f t="shared" si="1"/>
+      <c r="M40" s="63">
+        <f t="shared" si="2"/>
         <v>1.0092971797907649E-3</v>
       </c>
-      <c r="N40" s="66">
-        <f t="shared" si="1"/>
+      <c r="N40" s="63">
+        <f t="shared" si="2"/>
         <v>1.3586692804875682E-4</v>
       </c>
-      <c r="O40" s="66">
-        <f t="shared" si="1"/>
+      <c r="O40" s="63">
+        <f t="shared" si="2"/>
         <v>2.3291473379786882E-4</v>
       </c>
-      <c r="P40" s="66">
-        <f t="shared" si="1"/>
+      <c r="P40" s="63">
+        <f t="shared" si="2"/>
         <v>4.6582946759573764E-4</v>
       </c>
-      <c r="Q40" s="66">
-        <f t="shared" si="1"/>
+      <c r="Q40" s="63">
+        <f t="shared" si="2"/>
         <v>2.3291473379786882E-4</v>
       </c>
-      <c r="R40" s="66">
-        <f t="shared" si="1"/>
+      <c r="R40" s="63">
+        <f t="shared" si="2"/>
         <v>3.4937210069680325E-4</v>
       </c>
-      <c r="S40" s="66">
-        <f t="shared" si="1"/>
+      <c r="S40" s="63">
+        <f t="shared" si="2"/>
         <v>3.4937210069680325E-4</v>
       </c>
-      <c r="T40" s="66">
-        <f t="shared" si="1"/>
+      <c r="T40" s="63">
+        <f t="shared" si="2"/>
         <v>1.1645736689893441E-4</v>
       </c>
-      <c r="U40" s="66">
-        <f t="shared" si="1"/>
+      <c r="U40" s="63">
+        <f t="shared" si="2"/>
         <v>1.1645736689893441E-4</v>
       </c>
-      <c r="V40" s="66">
-        <f t="shared" si="1"/>
+      <c r="V40" s="63">
+        <f t="shared" si="2"/>
         <v>1.1645736689893441E-4</v>
       </c>
-      <c r="W40" s="70"/>
-      <c r="X40" s="66">
+      <c r="W40" s="67"/>
+      <c r="X40" s="63">
         <f>X39/SUM($X39:$Y39)</f>
         <v>4.850801117154197E-3</v>
       </c>
-      <c r="Y40" s="66">
+      <c r="Y40" s="63">
         <f>Y39/SUM($X39:$Y39)</f>
         <v>0.99514919888284581</v>
       </c>
@@ -9563,85 +9519,85 @@
       <c r="D41" s="50" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="67">
-        <f>1000000*AVERAGE(AVERAGE(E$2:E$7)/$B$2, AVERAGE(E$8:E$13)/$B$8, AVERAGE(E$14:E$19)/$B$14, AVERAGE(E$20:E$25)/$B$20, AVERAGE(E$26:E$31)/$B$26, AVERAGE(E$32:E$37)/$B$32)</f>
+      <c r="E41" s="64">
+        <f t="shared" ref="E41:L41" si="3">1000000*AVERAGE(AVERAGE(E$2:E$7)/$B$2, AVERAGE(E$8:E$13)/$B$8, AVERAGE(E$14:E$19)/$B$14, AVERAGE(E$20:E$25)/$B$20, AVERAGE(E$26:E$31)/$B$26, AVERAGE(E$32:E$37)/$B$32)</f>
         <v>11.029774811541976</v>
       </c>
-      <c r="F41" s="67">
-        <f>1000000*AVERAGE(AVERAGE(F$2:F$7)/$B$2, AVERAGE(F$8:F$13)/$B$8, AVERAGE(F$14:F$19)/$B$14, AVERAGE(F$20:F$25)/$B$20, AVERAGE(F$26:F$31)/$B$26, AVERAGE(F$32:F$37)/$B$32)</f>
+      <c r="F41" s="64">
+        <f t="shared" si="3"/>
         <v>252.62059610129776</v>
       </c>
-      <c r="G41" s="67">
-        <f>1000000*AVERAGE(AVERAGE(G$2:G$7)/$B$2, AVERAGE(G$8:G$13)/$B$8, AVERAGE(G$14:G$19)/$B$14, AVERAGE(G$20:G$25)/$B$20, AVERAGE(G$26:G$31)/$B$26, AVERAGE(G$32:G$37)/$B$32)</f>
+      <c r="G41" s="64">
+        <f t="shared" si="3"/>
         <v>27.944140358014245</v>
       </c>
-      <c r="H41" s="67">
-        <f>1000000*AVERAGE(AVERAGE(H$2:H$7)/$B$2, AVERAGE(H$8:H$13)/$B$8, AVERAGE(H$14:H$19)/$B$14, AVERAGE(H$20:H$25)/$B$20, AVERAGE(H$26:H$31)/$B$26, AVERAGE(H$32:H$37)/$B$32)</f>
+      <c r="H41" s="64">
+        <f t="shared" si="3"/>
         <v>13.648650732539526</v>
       </c>
-      <c r="I41" s="67">
-        <f>1000000*AVERAGE(AVERAGE(I$2:I$7)/$B$2, AVERAGE(I$8:I$13)/$B$8, AVERAGE(I$14:I$19)/$B$14, AVERAGE(I$20:I$25)/$B$20, AVERAGE(I$26:I$31)/$B$26, AVERAGE(I$32:I$37)/$B$32)</f>
+      <c r="I41" s="64">
+        <f t="shared" si="3"/>
         <v>1.7420311099455426</v>
       </c>
-      <c r="J41" s="67">
-        <f>1000000*AVERAGE(AVERAGE(J$2:J$7)/$B$2, AVERAGE(J$8:J$13)/$B$8, AVERAGE(J$14:J$19)/$B$14, AVERAGE(J$20:J$25)/$B$20, AVERAGE(J$26:J$31)/$B$26, AVERAGE(J$32:J$37)/$B$32)</f>
+      <c r="J41" s="64">
+        <f t="shared" si="3"/>
         <v>1.0801245047251604</v>
       </c>
-      <c r="K41" s="67">
-        <f>1000000*AVERAGE(AVERAGE(K$2:K$7)/$B$2, AVERAGE(K$8:K$13)/$B$8, AVERAGE(K$14:K$19)/$B$14, AVERAGE(K$20:K$25)/$B$20, AVERAGE(K$26:K$31)/$B$26, AVERAGE(K$32:K$37)/$B$32)</f>
+      <c r="K41" s="64">
+        <f t="shared" si="3"/>
         <v>0.16737340225252514</v>
       </c>
-      <c r="L41" s="67">
-        <f>1000000*AVERAGE(AVERAGE(L$2:L$7)/$B$2, AVERAGE(L$8:L$13)/$B$8, AVERAGE(L$14:L$19)/$B$14, AVERAGE(L$20:L$25)/$B$20, AVERAGE(L$26:L$31)/$B$26, AVERAGE(L$32:L$37)/$B$32)</f>
+      <c r="L41" s="64">
+        <f t="shared" si="3"/>
         <v>4.7921450481937126E-2</v>
       </c>
-      <c r="M41" s="67">
-        <f t="shared" ref="M41:Y41" si="2">1000000*AVERAGE(AVERAGE(M$2:M$7)/$B$2, AVERAGE(M$8:M$13)/$B$8, AVERAGE(M$14:M$19)/$B$14, AVERAGE(M$20:M$25)/$B$20, AVERAGE(M$26:M$31)/$B$26, AVERAGE(M$32:M$37)/$B$32)</f>
+      <c r="M41" s="64">
+        <f t="shared" ref="M41:Y41" si="4">1000000*AVERAGE(AVERAGE(M$2:M$7)/$B$2, AVERAGE(M$8:M$13)/$B$8, AVERAGE(M$14:M$19)/$B$14, AVERAGE(M$20:M$25)/$B$20, AVERAGE(M$26:M$31)/$B$26, AVERAGE(M$32:M$37)/$B$32)</f>
         <v>0.30028787760800862</v>
       </c>
-      <c r="N41" s="67">
-        <f t="shared" si="2"/>
+      <c r="N41" s="64">
+        <f t="shared" si="4"/>
         <v>3.7122628226365278E-2</v>
       </c>
-      <c r="O41" s="67">
-        <f t="shared" si="2"/>
+      <c r="O41" s="64">
+        <f t="shared" si="4"/>
         <v>6.153428856701533E-2</v>
       </c>
-      <c r="P41" s="67">
-        <f t="shared" si="2"/>
+      <c r="P41" s="64">
+        <f t="shared" si="4"/>
         <v>0.12306857713403066</v>
       </c>
-      <c r="Q41" s="67">
-        <f t="shared" si="2"/>
+      <c r="Q41" s="64">
+        <f t="shared" si="4"/>
         <v>6.153428856701533E-2</v>
       </c>
-      <c r="R41" s="67">
-        <f t="shared" si="2"/>
+      <c r="R41" s="64">
+        <f t="shared" si="4"/>
         <v>9.2301432850522988E-2</v>
       </c>
-      <c r="S41" s="67">
-        <f t="shared" si="2"/>
+      <c r="S41" s="64">
+        <f t="shared" si="4"/>
         <v>9.2301432850522988E-2</v>
       </c>
-      <c r="T41" s="67">
-        <f t="shared" si="2"/>
+      <c r="T41" s="64">
+        <f t="shared" si="4"/>
         <v>3.0767144283507665E-2</v>
       </c>
-      <c r="U41" s="67">
-        <f t="shared" si="2"/>
+      <c r="U41" s="64">
+        <f t="shared" si="4"/>
         <v>3.0767144283507665E-2</v>
       </c>
-      <c r="V41" s="67">
-        <f t="shared" si="2"/>
+      <c r="V41" s="64">
+        <f t="shared" si="4"/>
         <v>3.0767144283507665E-2</v>
       </c>
-      <c r="W41" s="71"/>
-      <c r="X41" s="67">
-        <f t="shared" si="2"/>
+      <c r="W41" s="68"/>
+      <c r="X41" s="64">
+        <f t="shared" si="4"/>
         <v>0.1770083644732047</v>
       </c>
-      <c r="Y41" s="67">
-        <f t="shared" si="2"/>
+      <c r="Y41" s="64">
+        <f t="shared" si="4"/>
         <v>41.52964064770871</v>
       </c>
     </row>
@@ -9658,7 +9614,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11907,7 +11863,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F523D0-732D-5F40-A24A-A2A97F9AE187}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3F523D0-732D-5F40-A24A-A2A97F9AE187}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -11940,7 +11896,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="62" t="s">
+      <c r="A4" s="58" t="s">
         <v>77</v>
       </c>
       <c r="B4" s="59" t="s">
@@ -11948,7 +11904,7 @@
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="62" t="s">
+      <c r="A5" s="58" t="s">
         <v>78</v>
       </c>
       <c r="B5" s="59" t="s">
@@ -11956,7 +11912,7 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="62" t="s">
+      <c r="A6" s="58" t="s">
         <v>87</v>
       </c>
       <c r="B6" s="59" t="s">
@@ -11973,6 +11929,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>